--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\repository\kakaotalk_send_msg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052078FC-40D1-4992-9037-E138D5B85E7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730A6E1-AEBF-403F-BE06-B675B663942C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AA50E1-09AD-4CEE-B69B-96AF73B622A6}"/>
   </bookViews>
@@ -34,21 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘의 발송 데이터입니다.</t>
+    <t>CONTEXT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘의 발송 데이터2입니다.</t>
+    <t>내일의 날씨는 모르겠습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONTEXT</t>
+    <t>오늘의 날씨는 화창합니다. 오늘은 3월9일이니 오늘의 Context를 전송합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모레도 모르겠습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A4385-72CA-49A9-9B1D-C1022104C48C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -460,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -468,7 +472,7 @@
         <v>44264</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,6 +481,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\repository\kakaotalk_send_msg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E730A6E1-AEBF-403F-BE06-B675B663942C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1012445-5D89-4147-9F7E-55D8816A27C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AA50E1-09AD-4CEE-B69B-96AF73B622A6}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +469,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44264</v>
+        <v>44269</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\repository\kakaotalk_send_msg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1012445-5D89-4147-9F7E-55D8816A27C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8886146-AC9D-4CCA-A821-BDD2A9AC2F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AA50E1-09AD-4CEE-B69B-96AF73B622A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INIT_DATA" sheetId="4" r:id="rId1"/>
+    <sheet name="FILTER_KEYWORD" sheetId="3" r:id="rId2"/>
+    <sheet name="CONTEXT_1" sheetId="1" r:id="rId3"/>
+    <sheet name="CONTEXT_2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +56,30 @@
   </si>
   <si>
     <t>모레도 모르겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTEXT_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTEXT_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INIT_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_NUM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELAY_TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -60,7 +87,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="182" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +104,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -120,7 +160,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -131,6 +171,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -446,11 +504,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4494C57E-DD62-4025-B214-54A06DA6586F}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE227D-BF55-4853-9331-9F245288C70C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="12.625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176A4385-72CA-49A9-9B1D-C1022104C48C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -469,7 +606,60 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44269</v>
+        <v>44275</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>44265</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>44266</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B0EBB1-8D1C-4836-8110-D6D39AE25322}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>44275</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/data/dataset.xlsx
+++ b/data/dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\repository\kakaotalk_send_msg\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_local\github\repository\kakaotalk_send_msg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8886146-AC9D-4CCA-A821-BDD2A9AC2F84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05962089-CC36-4281-8373-A8AA581B3E09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69AA50E1-09AD-4CEE-B69B-96AF73B622A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{69AA50E1-09AD-4CEE-B69B-96AF73B622A6}"/>
   </bookViews>
   <sheets>
     <sheet name="INIT_DATA" sheetId="4" r:id="rId1"/>
@@ -88,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -185,10 +185,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4494C57E-DD62-4025-B214-54A06DA6586F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -606,7 +606,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44275</v>
+        <v>44291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B0EBB1-8D1C-4836-8110-D6D39AE25322}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>44275</v>
+        <v>44291</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
